--- a/students-ParentsJobs.xlsx
+++ b/students-ParentsJobs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -384,16 +384,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
@@ -687,91 +689,6 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/students-ParentsJobs.xlsx
+++ b/students-ParentsJobs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="8">
   <si>
+    <t>ParentJob_key</t>
+  </si>
+  <si>
+    <t>Mother_job</t>
+  </si>
+  <si>
+    <t>Father_job</t>
+  </si>
+  <si>
     <t>teacher</t>
   </si>
   <si>
@@ -39,15 +48,6 @@
   </si>
   <si>
     <t>other</t>
-  </si>
-  <si>
-    <t>ParentJob_key</t>
-  </si>
-  <si>
-    <t>Mother_job</t>
-  </si>
-  <si>
-    <t>Father_job</t>
   </si>
 </sst>
 </file>
@@ -90,18 +90,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -384,313 +378,301 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection sqref="A1:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="2"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>7</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>0</v>
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>1</v>
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>2</v>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>3</v>
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>4</v>
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>0</v>
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>1</v>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>2</v>
+      <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>3</v>
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>4</v>
+      <c r="B16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>0</v>
+      <c r="B17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>1</v>
+      <c r="B18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>2</v>
+      <c r="B19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>3</v>
+      <c r="B20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>4</v>
+      <c r="B21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>0</v>
+      <c r="B22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>1</v>
+      <c r="B23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>2</v>
+      <c r="B24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>3</v>
+      <c r="B25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="B26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>